--- a/docs/test_plan.xlsx
+++ b/docs/test_plan.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496"/>
   </bookViews>
   <sheets>
     <sheet name="test_plan" sheetId="1" r:id="rId1"/>
     <sheet name="covergae_plan" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="schedule" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Sl.no</t>
   </si>
@@ -145,24 +145,9 @@
     <t xml:space="preserve">Bins </t>
   </si>
   <si>
-    <t>ctrl_reg_test</t>
-  </si>
-  <si>
-    <t>control reg test</t>
-  </si>
-  <si>
-    <t>To check the behaviour of timer by configuring different timer's operating modes.</t>
-  </si>
-  <si>
-    <t>clock selection test</t>
-  </si>
-  <si>
     <t>clk_select_test</t>
   </si>
   <si>
-    <t>When EXTIN is selected as clock,it should be slower than half of the peripheral clock</t>
-  </si>
-  <si>
     <t>25 working days</t>
   </si>
   <si>
@@ -173,6 +158,48 @@
   </si>
   <si>
     <t>End date --   23-04-2024</t>
+  </si>
+  <si>
+    <t>When EXTIN is selected as clock,it should be slower than half of the peripheral clock.</t>
+  </si>
+  <si>
+    <t>control reg clock selection test</t>
+  </si>
+  <si>
+    <t>timer enable test</t>
+  </si>
+  <si>
+    <t>When EXTIN is transisited from 0 to 1 , timer will be enabled.</t>
+  </si>
+  <si>
+    <t>timer_enable_test</t>
+  </si>
+  <si>
+    <t>Enabling current value register</t>
+  </si>
+  <si>
+    <t>current_value_reg_test</t>
+  </si>
+  <si>
+    <t>Enabling reload value register</t>
+  </si>
+  <si>
+    <t>We have configure 10'h001 for addr, to enable write operation to current value register</t>
+  </si>
+  <si>
+    <t>We have configure 10'h002 for addr, to enable write operation to current value register</t>
+  </si>
+  <si>
+    <t>Interrupt clear test</t>
+  </si>
+  <si>
+    <t>interrupt_clr_test</t>
+  </si>
+  <si>
+    <t>reload_value_reg_test</t>
+  </si>
+  <si>
+    <t>When counter reaches zero, we have to clear it by writing to this register.</t>
   </si>
 </sst>
 </file>
@@ -299,13 +326,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,17 +613,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:I24"/>
+  <dimension ref="D4:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:9" x14ac:dyDescent="0.3">
@@ -656,13 +683,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -672,13 +699,13 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -688,13 +715,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -704,13 +731,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -719,9 +746,15 @@
       <c r="D11" s="3">
         <v>7</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
@@ -729,19 +762,31 @@
       <c r="D12" s="3">
         <v>8</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
@@ -800,38 +845,6 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -854,10 +867,10 @@
   </cols>
   <sheetData>
     <row r="6" spans="4:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D7" s="7"/>
@@ -975,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,18 +1000,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="E2" s="11" t="s">
-        <v>46</v>
+      <c r="E2" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.3">
@@ -1065,7 +1078,7 @@
       <c r="D12" s="6">
         <v>5</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="6">
@@ -1162,7 +1175,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.3">
